--- a/氣象性能評估工具V2/data/obs/2016-06-14_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-14_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="193">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-14-00</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>28.2</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>27.2</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-14-01</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>28.0</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>29.7</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-14-02</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>23.7</t>
   </si>
   <si>
+    <t>21.0</t>
+  </si>
+  <si>
     <t>2016-06-14-03</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
     <t>25.4</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>30.0</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-14-05</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>22.8</t>
   </si>
   <si>
@@ -334,12 +334,12 @@
     <t>29.5</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-14-07</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>21.9</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>30.4</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-14-08</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>22.7</t>
   </si>
   <si>
@@ -466,12 +466,12 @@
     <t>31.7</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>2016-06-14-13</t>
   </si>
   <si>
-    <t>20.8</t>
-  </si>
-  <si>
     <t>14.6</t>
   </si>
   <si>
@@ -532,10 +532,10 @@
     <t>32.8</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-14-17</t>
-  </si>
-  <si>
-    <t>21.2</t>
   </si>
   <si>
     <t>13.3</t>
@@ -599,6 +599,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -628,8 +631,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,11 +1012,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1085,11 +1089,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1162,11 +1166,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1239,11 +1243,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1316,7 +1320,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B6" t="s">
@@ -1393,11 +1397,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1436,7 +1440,7 @@
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
         <v>82</v>
@@ -1470,11 +1474,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1513,7 +1517,7 @@
         <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
         <v>82</v>
@@ -1547,11 +1551,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1624,11 +1628,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
         <v>114</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1701,7 +1705,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B11" t="s">
@@ -1744,7 +1748,7 @@
         <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
         <v>122</v>
@@ -1778,17 +1782,17 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -1821,7 +1825,7 @@
         <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
         <v>130</v>
@@ -1855,11 +1859,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1932,11 +1936,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1975,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" t="s">
         <v>122</v>
@@ -2009,11 +2013,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -2086,7 +2090,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B16" t="s">
@@ -2096,7 +2100,7 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -2163,11 +2167,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B18" t="s">
@@ -2283,7 +2287,7 @@
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" t="s">
         <v>166</v>
@@ -2317,11 +2321,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
         <v>172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -2394,11 +2398,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
@@ -2471,11 +2475,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -2548,7 +2552,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B22" t="s">
@@ -2625,11 +2629,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -2702,7 +2706,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B24" t="s">
@@ -2745,7 +2749,7 @@
         <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
         <v>176</v>
@@ -2779,7 +2783,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B25" t="s">
